--- a/Code/Results/Cases/Case_9_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.34779365033542</v>
+        <v>21.3835317307323</v>
       </c>
       <c r="C2">
-        <v>15.1774151453543</v>
+        <v>15.17427614291547</v>
       </c>
       <c r="D2">
-        <v>5.12453505371416</v>
+        <v>5.16098882981293</v>
       </c>
       <c r="E2">
-        <v>9.125903571817034</v>
+        <v>9.019815685743296</v>
       </c>
       <c r="F2">
-        <v>16.45412786982118</v>
+        <v>16.10118084182324</v>
       </c>
       <c r="G2">
-        <v>19.80693026683699</v>
+        <v>18.48132015790878</v>
       </c>
       <c r="H2">
-        <v>2.144796715538343</v>
+        <v>2.07545823217966</v>
       </c>
       <c r="I2">
-        <v>2.774968530473804</v>
+        <v>2.684845642161874</v>
       </c>
       <c r="J2">
-        <v>8.310081028703395</v>
+        <v>8.715397953385706</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.24153184802491</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.280885789470524</v>
       </c>
       <c r="N2">
-        <v>6.568531786917189</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.61844835696831</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.662892284712972</v>
       </c>
       <c r="Q2">
-        <v>13.25298454098821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.63589083287391</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.96561226388392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.95598048729515</v>
+        <v>20.00059486822197</v>
       </c>
       <c r="C3">
-        <v>14.67423976105536</v>
+        <v>14.56082719070764</v>
       </c>
       <c r="D3">
-        <v>4.914883666729673</v>
+        <v>4.931536564307145</v>
       </c>
       <c r="E3">
-        <v>9.095784316506176</v>
+        <v>8.997611440577939</v>
       </c>
       <c r="F3">
-        <v>16.16876176606256</v>
+        <v>15.8608532440453</v>
       </c>
       <c r="G3">
-        <v>19.48340145936702</v>
+        <v>18.24185394319496</v>
       </c>
       <c r="H3">
-        <v>2.332399758554342</v>
+        <v>2.249687420268858</v>
       </c>
       <c r="I3">
-        <v>2.932849278442701</v>
+        <v>2.825480843451859</v>
       </c>
       <c r="J3">
-        <v>8.355951009115378</v>
+        <v>8.738790354588124</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.44715108618465</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.475200082139851</v>
       </c>
       <c r="N3">
-        <v>6.406364042968664</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.96000080835147</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.50640368572839</v>
       </c>
       <c r="Q3">
-        <v>13.24609488709239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.97066383094895</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.98670898702686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.04906364475738</v>
+        <v>19.0995744335431</v>
       </c>
       <c r="C4">
-        <v>14.35890871911657</v>
+        <v>14.17562476378948</v>
       </c>
       <c r="D4">
-        <v>4.781453152400158</v>
+        <v>4.785408034462914</v>
       </c>
       <c r="E4">
-        <v>9.076338956740059</v>
+        <v>8.983334059805479</v>
       </c>
       <c r="F4">
-        <v>16.00124663793737</v>
+        <v>15.71960949293788</v>
       </c>
       <c r="G4">
-        <v>19.29683300173098</v>
+        <v>18.10849105802671</v>
       </c>
       <c r="H4">
-        <v>2.451603188835518</v>
+        <v>2.360418598433668</v>
       </c>
       <c r="I4">
-        <v>3.033987538696413</v>
+        <v>2.915896016316102</v>
       </c>
       <c r="J4">
-        <v>8.387600682663205</v>
+        <v>8.754607668113202</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.57826000032157</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.611751342029043</v>
       </c>
       <c r="N4">
-        <v>6.304852217639592</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.53699417942405</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.408808283853134</v>
       </c>
       <c r="Q4">
-        <v>13.24940085747008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.54296324920462</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.00572614281031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.6659842970693</v>
+        <v>18.71902766162812</v>
       </c>
       <c r="C5">
-        <v>14.23847344837038</v>
+        <v>14.02640834271566</v>
       </c>
       <c r="D5">
-        <v>4.72772776827152</v>
+        <v>4.726339678420779</v>
       </c>
       <c r="E5">
-        <v>9.067200851116224</v>
+        <v>8.976484963699336</v>
       </c>
       <c r="F5">
-        <v>15.92614378811656</v>
+        <v>15.65520489483186</v>
       </c>
       <c r="G5">
-        <v>19.20813089778937</v>
+        <v>18.04207003825456</v>
       </c>
       <c r="H5">
-        <v>2.501462695208629</v>
+        <v>2.406753422963483</v>
       </c>
       <c r="I5">
-        <v>3.079060053620652</v>
+        <v>2.957061422137835</v>
       </c>
       <c r="J5">
-        <v>8.398899036514088</v>
+        <v>8.75910435422762</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.62803061859539</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.669537803180727</v>
       </c>
       <c r="N5">
-        <v>6.263640188504291</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.36071139686787</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.369262107841892</v>
       </c>
       <c r="Q5">
-        <v>13.24630609235292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.36460659351238</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.00895890807189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.60119714956849</v>
+        <v>18.65467276895232</v>
       </c>
       <c r="C6">
-        <v>14.23011300743974</v>
+        <v>14.01344227896135</v>
       </c>
       <c r="D6">
-        <v>4.720933044069348</v>
+        <v>4.718598826340691</v>
       </c>
       <c r="E6">
-        <v>9.064491962729997</v>
+        <v>8.974290251020753</v>
       </c>
       <c r="F6">
-        <v>15.90300980475534</v>
+        <v>15.63427876388437</v>
       </c>
       <c r="G6">
-        <v>19.17437180938661</v>
+        <v>18.01238607767678</v>
       </c>
       <c r="H6">
-        <v>2.510120339210516</v>
+        <v>2.414815694823975</v>
       </c>
       <c r="I6">
-        <v>3.090208212307928</v>
+        <v>2.968215668381875</v>
       </c>
       <c r="J6">
-        <v>8.397831860443018</v>
+        <v>8.757053989572402</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.63043061141745</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.676882900486635</v>
       </c>
       <c r="N6">
-        <v>6.257517314140622</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.3319871372152</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.363373548021391</v>
       </c>
       <c r="Q6">
-        <v>13.23823340050762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.33549681327337</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.00227524357411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04294148707368</v>
+        <v>19.0933131754552</v>
       </c>
       <c r="C7">
-        <v>14.38907583586492</v>
+        <v>14.20309342725104</v>
       </c>
       <c r="D7">
-        <v>4.786661897258309</v>
+        <v>4.793830511681981</v>
       </c>
       <c r="E7">
-        <v>9.073061991700717</v>
+        <v>8.97963774119137</v>
       </c>
       <c r="F7">
-        <v>15.97095885558428</v>
+        <v>15.67532388020469</v>
       </c>
       <c r="G7">
-        <v>19.24344353612857</v>
+        <v>18.13601641712713</v>
       </c>
       <c r="H7">
-        <v>2.453114573932081</v>
+        <v>2.362311464055741</v>
       </c>
       <c r="I7">
-        <v>3.0441203641898</v>
+        <v>2.928175118137831</v>
       </c>
       <c r="J7">
-        <v>8.37958227945246</v>
+        <v>8.712856036881085</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.55780147820848</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.602717871389409</v>
       </c>
       <c r="N7">
-        <v>6.306329141816978</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.53682067560707</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.40986253091955</v>
       </c>
       <c r="Q7">
-        <v>13.2284460206422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.54264495382661</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.97513332701508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.87751473932396</v>
+        <v>20.9156995693072</v>
       </c>
       <c r="C8">
-        <v>15.04629767727155</v>
+        <v>14.99741278398368</v>
       </c>
       <c r="D8">
-        <v>5.060801083416773</v>
+        <v>5.101295703033132</v>
       </c>
       <c r="E8">
-        <v>9.111804104233366</v>
+        <v>9.006441557715569</v>
       </c>
       <c r="F8">
-        <v>16.31637960633796</v>
+        <v>15.93095915764534</v>
       </c>
       <c r="G8">
-        <v>19.62540259337151</v>
+        <v>18.59103235567035</v>
       </c>
       <c r="H8">
-        <v>2.209683507095386</v>
+        <v>2.137129523975308</v>
       </c>
       <c r="I8">
-        <v>2.840801024899617</v>
+        <v>2.748425467207217</v>
       </c>
       <c r="J8">
-        <v>8.314397769026781</v>
+        <v>8.601830628515277</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.27720063353194</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.321849345647651</v>
       </c>
       <c r="N8">
-        <v>6.515684870535276</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.39804350662022</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.610786504403003</v>
       </c>
       <c r="Q8">
-        <v>13.22155291151102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.41301530865307</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.91022222765821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.06315507925459</v>
+        <v>24.08107156024156</v>
       </c>
       <c r="C9">
-        <v>16.22543200027387</v>
+        <v>16.43517196115763</v>
       </c>
       <c r="D9">
-        <v>5.549532742082611</v>
+        <v>5.638307871067528</v>
       </c>
       <c r="E9">
-        <v>9.185694937705961</v>
+        <v>9.061523581827394</v>
       </c>
       <c r="F9">
-        <v>17.10345256066702</v>
+        <v>16.58693713589199</v>
       </c>
       <c r="G9">
-        <v>20.56031617437801</v>
+        <v>19.38695387969904</v>
       </c>
       <c r="H9">
-        <v>1.762167157947609</v>
+        <v>1.721835515922537</v>
       </c>
       <c r="I9">
-        <v>2.498042654258908</v>
+        <v>2.556015922775102</v>
       </c>
       <c r="J9">
-        <v>8.230005248328725</v>
+        <v>8.530253645017414</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.80931607595409</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.940575609587041</v>
       </c>
       <c r="N9">
-        <v>6.905919152694873</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.93032924344482</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.989144169263074</v>
       </c>
       <c r="Q9">
-        <v>13.30779507996259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.95930451199324</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.90812633567281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.17049938082886</v>
+        <v>26.17440730024164</v>
       </c>
       <c r="C10">
-        <v>17.17664967410531</v>
+        <v>17.53698176718169</v>
       </c>
       <c r="D10">
-        <v>5.911038975289081</v>
+        <v>6.04653470147964</v>
       </c>
       <c r="E10">
-        <v>9.217577656353763</v>
+        <v>9.086229334154003</v>
       </c>
       <c r="F10">
-        <v>17.57517539131658</v>
+        <v>16.89457235677484</v>
       </c>
       <c r="G10">
-        <v>21.05469259023457</v>
+        <v>20.24616715350766</v>
       </c>
       <c r="H10">
-        <v>1.662744524316587</v>
+        <v>1.678381696608202</v>
       </c>
       <c r="I10">
-        <v>2.752108940577397</v>
+        <v>2.78218444414417</v>
       </c>
       <c r="J10">
-        <v>8.145108694034922</v>
+        <v>8.266750122701042</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.42795099142825</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.67104253483928</v>
       </c>
       <c r="N10">
-        <v>7.0858968948854</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.88897129233713</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.159416384323118</v>
       </c>
       <c r="Q10">
-        <v>13.3068033163355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.92432478733022</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.78926275616407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.21833099869994</v>
+        <v>27.21827757077694</v>
       </c>
       <c r="C11">
-        <v>18.62262272749572</v>
+        <v>18.91169026032618</v>
       </c>
       <c r="D11">
-        <v>6.298156726509744</v>
+        <v>6.461063027788976</v>
       </c>
       <c r="E11">
-        <v>9.337725230038014</v>
+        <v>9.258731948359818</v>
       </c>
       <c r="F11">
-        <v>16.66484490637003</v>
+        <v>15.91447942766545</v>
       </c>
       <c r="G11">
-        <v>19.2743844779621</v>
+        <v>19.5787680282772</v>
       </c>
       <c r="H11">
-        <v>2.668525215622681</v>
+        <v>2.671554943477401</v>
       </c>
       <c r="I11">
-        <v>2.842097364827165</v>
+        <v>2.861807536664056</v>
       </c>
       <c r="J11">
-        <v>7.768732308981289</v>
+        <v>7.642167614261846</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.965586835304284</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.059786833046061</v>
       </c>
       <c r="N11">
-        <v>6.390449836608996</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.7033765578576</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.445183964589278</v>
       </c>
       <c r="Q11">
-        <v>12.45305507866102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.73200828757986</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.90419383976732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.6793700783252</v>
+        <v>27.67908544495753</v>
       </c>
       <c r="C12">
-        <v>19.65179705341962</v>
+        <v>19.84175138904499</v>
       </c>
       <c r="D12">
-        <v>6.549562476358585</v>
+        <v>6.714884551881456</v>
       </c>
       <c r="E12">
-        <v>9.761881450175043</v>
+        <v>9.70823355629059</v>
       </c>
       <c r="F12">
-        <v>15.81959268414787</v>
+        <v>15.09550079524337</v>
       </c>
       <c r="G12">
-        <v>17.71323529531375</v>
+        <v>18.60961128696225</v>
       </c>
       <c r="H12">
-        <v>4.039680120642323</v>
+        <v>4.039222270852968</v>
       </c>
       <c r="I12">
-        <v>2.864184726190545</v>
+        <v>2.879677268003141</v>
       </c>
       <c r="J12">
-        <v>7.48228966378479</v>
+        <v>7.336017723075086</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.752038344954016</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.674513473662652</v>
       </c>
       <c r="N12">
-        <v>5.84039682358759</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.33798296317842</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.882483559191489</v>
       </c>
       <c r="Q12">
-        <v>11.7601753907937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.36012991290316</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.25024331802773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.73126228994601</v>
+        <v>27.73385180726797</v>
       </c>
       <c r="C13">
-        <v>20.47698358873894</v>
+        <v>20.54898458610649</v>
       </c>
       <c r="D13">
-        <v>6.724291857793119</v>
+        <v>6.864099987416202</v>
       </c>
       <c r="E13">
-        <v>10.39364413112539</v>
+        <v>10.34754459773571</v>
       </c>
       <c r="F13">
-        <v>14.91588092111769</v>
+        <v>14.33130045685416</v>
       </c>
       <c r="G13">
-        <v>16.12685669845639</v>
+        <v>17.05570699289382</v>
       </c>
       <c r="H13">
-        <v>5.491830776584594</v>
+        <v>5.49083755665271</v>
       </c>
       <c r="I13">
-        <v>2.840236172098317</v>
+        <v>2.85828556425631</v>
       </c>
       <c r="J13">
-        <v>7.236642497599824</v>
+        <v>7.234226576032494</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.667045987272491</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.450215371398229</v>
       </c>
       <c r="N13">
-        <v>5.390896244519571</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.80441834382669</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.425955351705794</v>
       </c>
       <c r="Q13">
-        <v>11.11792841710614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.81964819309195</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.72544731366161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.58332303172856</v>
+        <v>27.58930714775482</v>
       </c>
       <c r="C14">
-        <v>20.98160298321161</v>
+        <v>20.96087659887551</v>
       </c>
       <c r="D14">
-        <v>6.815665363136383</v>
+        <v>6.924489029617548</v>
       </c>
       <c r="E14">
-        <v>10.94201745234661</v>
+        <v>10.8914998159409</v>
       </c>
       <c r="F14">
-        <v>14.24546493735708</v>
+        <v>13.80779918290028</v>
       </c>
       <c r="G14">
-        <v>14.99022087134543</v>
+        <v>15.69357005456546</v>
       </c>
       <c r="H14">
-        <v>6.512862095453109</v>
+        <v>6.510964012770343</v>
       </c>
       <c r="I14">
-        <v>2.804087957125433</v>
+        <v>2.827271250274112</v>
       </c>
       <c r="J14">
-        <v>7.084225106089198</v>
+        <v>7.231912892127178</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.655751939727795</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.381333267902094</v>
       </c>
       <c r="N14">
-        <v>5.151546513854492</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.34794723039279</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.185159931779758</v>
       </c>
       <c r="Q14">
-        <v>10.6925441071539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.35792405036075</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.41159649632729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.45856296844454</v>
+        <v>27.46606192882796</v>
       </c>
       <c r="C15">
-        <v>21.06965955488466</v>
+        <v>21.02328663736399</v>
       </c>
       <c r="D15">
-        <v>6.823240581863111</v>
+        <v>6.918980276313342</v>
       </c>
       <c r="E15">
-        <v>11.07953718154371</v>
+        <v>11.02703587380538</v>
       </c>
       <c r="F15">
-        <v>14.06174010963985</v>
+        <v>13.68076330899117</v>
       </c>
       <c r="G15">
-        <v>14.69504856405984</v>
+        <v>15.24043263702232</v>
       </c>
       <c r="H15">
-        <v>6.749617417381098</v>
+        <v>6.74719815872126</v>
       </c>
       <c r="I15">
-        <v>2.78653755626984</v>
+        <v>2.81298875053081</v>
       </c>
       <c r="J15">
-        <v>7.053696259132236</v>
+        <v>7.259715466996972</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.664481657800703</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.392639337209944</v>
       </c>
       <c r="N15">
-        <v>5.104573614902481</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.20090007158287</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.139076678109609</v>
       </c>
       <c r="Q15">
-        <v>10.59498045721613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.20938902152652</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.35364149725952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.59648019286922</v>
+        <v>26.61043527438639</v>
       </c>
       <c r="C16">
-        <v>20.56037592319684</v>
+        <v>20.49498100277508</v>
       </c>
       <c r="D16">
-        <v>6.651187317595466</v>
+        <v>6.70240198187179</v>
       </c>
       <c r="E16">
-        <v>10.92287893580714</v>
+        <v>10.87338236738837</v>
       </c>
       <c r="F16">
-        <v>13.9896191466671</v>
+        <v>13.77529887411521</v>
       </c>
       <c r="G16">
-        <v>14.72071394095559</v>
+        <v>14.43921066840622</v>
       </c>
       <c r="H16">
-        <v>6.543310053480559</v>
+        <v>6.537289677089288</v>
       </c>
       <c r="I16">
-        <v>2.684689866685894</v>
+        <v>2.726148891877048</v>
       </c>
       <c r="J16">
-        <v>7.137573132901701</v>
+        <v>7.54876974343513</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.759930556425592</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.619983617211678</v>
       </c>
       <c r="N16">
-        <v>5.108040509295393</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.8781030947321</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.152183001856486</v>
       </c>
       <c r="Q16">
-        <v>10.71350988275243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.88503563773623</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.57401329737305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.00180454330862</v>
+        <v>26.01874636724517</v>
       </c>
       <c r="C17">
-        <v>19.88340780639601</v>
+        <v>19.85085824155939</v>
       </c>
       <c r="D17">
-        <v>6.466043679423561</v>
+        <v>6.505419015232319</v>
       </c>
       <c r="E17">
-        <v>10.48921149591086</v>
+        <v>10.44531844015785</v>
       </c>
       <c r="F17">
-        <v>14.29963104962204</v>
+        <v>14.11442225775005</v>
       </c>
       <c r="G17">
-        <v>15.35314607234038</v>
+        <v>14.67703304859164</v>
       </c>
       <c r="H17">
-        <v>5.81079651329786</v>
+        <v>5.801565194514505</v>
       </c>
       <c r="I17">
-        <v>2.626038238057128</v>
+        <v>2.675944548979938</v>
       </c>
       <c r="J17">
-        <v>7.281006740991912</v>
+        <v>7.769623480543232</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.860590522004566</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.814516678498041</v>
       </c>
       <c r="N17">
-        <v>5.224514870173666</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.88083644177993</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.275866728956318</v>
       </c>
       <c r="Q17">
-        <v>11.02678000130901</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.88946158620097</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.89829419943331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.58387856464377</v>
+        <v>25.60123425370216</v>
       </c>
       <c r="C18">
-        <v>18.97686040371817</v>
+        <v>19.02649139735339</v>
       </c>
       <c r="D18">
-        <v>6.247622611873409</v>
+        <v>6.294959675631636</v>
       </c>
       <c r="E18">
-        <v>9.87515128898597</v>
+        <v>9.833262700722974</v>
       </c>
       <c r="F18">
-        <v>14.98882705811984</v>
+        <v>14.74826747614345</v>
       </c>
       <c r="G18">
-        <v>16.61274746500772</v>
+        <v>15.68493497476461</v>
       </c>
       <c r="H18">
-        <v>4.565846026126806</v>
+        <v>4.552687329959293</v>
       </c>
       <c r="I18">
-        <v>2.595610876871667</v>
+        <v>2.648255481643231</v>
       </c>
       <c r="J18">
-        <v>7.50061532931134</v>
+        <v>7.995723559334913</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.01152828622716</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.036563578232967</v>
       </c>
       <c r="N18">
-        <v>5.523631279222043</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.16426640394273</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.582090513114206</v>
       </c>
       <c r="Q18">
-        <v>11.56295705388395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.17797867929291</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.38829280067999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.34564138304125</v>
+        <v>25.36128583313554</v>
       </c>
       <c r="C19">
-        <v>18.05176487636913</v>
+        <v>18.20867265037682</v>
       </c>
       <c r="D19">
-        <v>6.035206168416404</v>
+        <v>6.101403534618006</v>
       </c>
       <c r="E19">
-        <v>9.369978913024209</v>
+        <v>9.312284473012593</v>
       </c>
       <c r="F19">
-        <v>15.87761884128623</v>
+        <v>15.53242813115908</v>
       </c>
       <c r="G19">
-        <v>18.20048377998162</v>
+        <v>17.07818693692575</v>
       </c>
       <c r="H19">
-        <v>3.093592414313392</v>
+        <v>3.074745444166779</v>
       </c>
       <c r="I19">
-        <v>2.603676310479677</v>
+        <v>2.656610580275066</v>
       </c>
       <c r="J19">
-        <v>7.758973596200615</v>
+        <v>8.219399311506576</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.21559656086022</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.300534511990926</v>
       </c>
       <c r="N19">
-        <v>6.037397942478409</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.64797995925518</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.103665568642814</v>
       </c>
       <c r="Q19">
-        <v>12.21796020191722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.66900740523963</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.96080642266829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.63237756964361</v>
+        <v>25.64046838711996</v>
       </c>
       <c r="C20">
-        <v>17.02532749485102</v>
+        <v>17.35574177623579</v>
       </c>
       <c r="D20">
-        <v>5.835325243562044</v>
+        <v>5.947696348716085</v>
       </c>
       <c r="E20">
-        <v>9.201088485939298</v>
+        <v>9.075718920711219</v>
       </c>
       <c r="F20">
-        <v>17.36079123822604</v>
+        <v>16.77851554773902</v>
       </c>
       <c r="G20">
-        <v>20.76311822245738</v>
+        <v>19.59731556279313</v>
       </c>
       <c r="H20">
-        <v>1.581494037006364</v>
+        <v>1.604517584418614</v>
       </c>
       <c r="I20">
-        <v>2.698515902555912</v>
+        <v>2.740630079317215</v>
       </c>
       <c r="J20">
-        <v>8.139411626802447</v>
+        <v>8.426149946444747</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.50501605996101</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.710481736390276</v>
       </c>
       <c r="N20">
-        <v>7.040683363003492</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.64552900669904</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.117191049872382</v>
       </c>
       <c r="Q20">
-        <v>13.23706234778975</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.67929685142135</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.79294512373271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.14610188693281</v>
+        <v>27.14075997945033</v>
       </c>
       <c r="C21">
-        <v>17.55101659957629</v>
+        <v>17.9681784668637</v>
       </c>
       <c r="D21">
-        <v>6.061296372209755</v>
+        <v>6.267157692740461</v>
       </c>
       <c r="E21">
-        <v>9.252924209403565</v>
+        <v>9.098668994945122</v>
       </c>
       <c r="F21">
-        <v>17.94806111248522</v>
+        <v>16.9517349978094</v>
       </c>
       <c r="G21">
-        <v>21.54561368201882</v>
+        <v>22.01945631286478</v>
       </c>
       <c r="H21">
-        <v>1.814100795183</v>
+        <v>1.813150525823142</v>
       </c>
       <c r="I21">
-        <v>2.892973060393825</v>
+        <v>2.906933181620079</v>
       </c>
       <c r="J21">
-        <v>8.145682469794457</v>
+        <v>7.737407962624239</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.23420977688481</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.530812723786314</v>
       </c>
       <c r="N21">
-        <v>7.322165619674445</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.45680845161241</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.389573203638632</v>
       </c>
       <c r="Q21">
-        <v>13.41417072615356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.49508945883016</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.65816111213221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.10045043702423</v>
+        <v>28.08670962069429</v>
       </c>
       <c r="C22">
-        <v>17.90723523307991</v>
+        <v>18.37107969359263</v>
       </c>
       <c r="D22">
-        <v>6.210734093110724</v>
+        <v>6.478765413499678</v>
       </c>
       <c r="E22">
-        <v>9.280612166281578</v>
+        <v>9.111897687809007</v>
       </c>
       <c r="F22">
-        <v>18.30442874312204</v>
+        <v>17.02695719019063</v>
       </c>
       <c r="G22">
-        <v>22.00849163592783</v>
+        <v>23.66226573679588</v>
       </c>
       <c r="H22">
-        <v>1.960712321048053</v>
+        <v>1.944550369360383</v>
       </c>
       <c r="I22">
-        <v>3.011723840394285</v>
+        <v>3.006552475564</v>
       </c>
       <c r="J22">
-        <v>8.144716286967103</v>
+        <v>7.325078411072616</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.05601786173163</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.408756468753726</v>
       </c>
       <c r="N22">
-        <v>7.45190724307994</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.93030042276333</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.51307784320649</v>
       </c>
       <c r="Q22">
-        <v>13.51495519441734</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.97042539229689</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.54206547876031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.59599613796332</v>
+        <v>27.58696233771104</v>
       </c>
       <c r="C23">
-        <v>17.68491260728348</v>
+        <v>18.12925093048672</v>
       </c>
       <c r="D23">
-        <v>6.125565944678927</v>
+        <v>6.353040988916511</v>
       </c>
       <c r="E23">
-        <v>9.268697000145455</v>
+        <v>9.108186972105965</v>
       </c>
       <c r="F23">
-        <v>18.14387595786863</v>
+        <v>17.05113993016053</v>
       </c>
       <c r="G23">
-        <v>21.81426386750886</v>
+        <v>22.64213164800597</v>
       </c>
       <c r="H23">
-        <v>1.883404876625371</v>
+        <v>1.875993744237545</v>
       </c>
       <c r="I23">
-        <v>2.943905548087624</v>
+        <v>2.948203136986772</v>
       </c>
       <c r="J23">
-        <v>8.154270338576289</v>
+        <v>7.603648684889555</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.16695591004962</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.501945988633962</v>
       </c>
       <c r="N23">
-        <v>7.380704814522647</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.67744787504045</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.445837782996402</v>
       </c>
       <c r="Q23">
-        <v>13.48377403609393</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.71689836704189</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.65269056770174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.59486835956864</v>
+        <v>25.60279102910032</v>
       </c>
       <c r="C24">
-        <v>16.87711288050079</v>
+        <v>17.21438646361832</v>
       </c>
       <c r="D24">
-        <v>5.802059030612656</v>
+        <v>5.915717485553447</v>
       </c>
       <c r="E24">
-        <v>9.218178867211968</v>
+        <v>9.085589838846159</v>
       </c>
       <c r="F24">
-        <v>17.49985370753387</v>
+        <v>16.9064328208417</v>
       </c>
       <c r="G24">
-        <v>21.01593400565404</v>
+        <v>19.81547236801608</v>
       </c>
       <c r="H24">
-        <v>1.583767597231704</v>
+        <v>1.606943352400793</v>
       </c>
       <c r="I24">
-        <v>2.69018106674654</v>
+        <v>2.730101160903931</v>
       </c>
       <c r="J24">
-        <v>8.184213504286008</v>
+        <v>8.469025083409557</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.55755139612703</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.776885573875616</v>
       </c>
       <c r="N24">
-        <v>7.109260847111501</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.68518808790171</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.187108209439089</v>
       </c>
       <c r="Q24">
-        <v>13.34727476512528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.71981005980234</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.89301131191053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.24386070572745</v>
+        <v>23.26725462944426</v>
       </c>
       <c r="C25">
-        <v>15.96678686755995</v>
+        <v>16.1133098135853</v>
       </c>
       <c r="D25">
-        <v>5.431438676680473</v>
+        <v>5.503032882681841</v>
       </c>
       <c r="E25">
-        <v>9.161560927416943</v>
+        <v>9.044125028342718</v>
       </c>
       <c r="F25">
-        <v>16.83491821077986</v>
+        <v>16.37782083709569</v>
       </c>
       <c r="G25">
-        <v>20.20867215437458</v>
+        <v>18.96411205408812</v>
       </c>
       <c r="H25">
-        <v>1.881241902608629</v>
+        <v>1.83182334018762</v>
       </c>
       <c r="I25">
-        <v>2.577309149230146</v>
+        <v>2.517528602860622</v>
       </c>
       <c r="J25">
-        <v>8.234956206109384</v>
+        <v>8.582442581116032</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.91668987686538</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.012347437010686</v>
       </c>
       <c r="N25">
-        <v>6.805851915416246</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.53603301380062</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.892145301539523</v>
       </c>
       <c r="Q25">
-        <v>13.24036167973234</v>
+        <v>13.56159563582173</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.88313597048178</v>
       </c>
     </row>
   </sheetData>
